--- a/Systems and Solutions Architect Capstone Project/Traceability Matrix Template and Example.xlsx
+++ b/Systems and Solutions Architect Capstone Project/Traceability Matrix Template and Example.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\Systems and Solutions Architect Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BhavikaChhatbar\Documents\201189_Solution and Systems Architect Capstone\201189.012_Lab_Requirements Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D965A-EF83-49C3-BA56-8BB9206D0ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="Instructions" sheetId="3" r:id="rId2"/>
     <sheet name="Example" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -257,66 +258,15 @@
 Date: 1 June 20xx</t>
   </si>
   <si>
-    <t>Customers can securely onboard and manage accounts via web and mobile apps.</t>
-  </si>
-  <si>
-    <t>Functional (FR)</t>
-  </si>
-  <si>
-    <t>FR1</t>
-  </si>
-  <si>
-    <t>FR2</t>
-  </si>
-  <si>
-    <t>FR3</t>
-  </si>
-  <si>
-    <t>FR4</t>
-  </si>
-  <si>
-    <t>Compliance staff can access real-time audit logs and KYC reports.</t>
-  </si>
-  <si>
-    <t>Product owners can configure loan approval workflows and fraud detection rules.</t>
-  </si>
-  <si>
-    <t>DevOps can automate builds, tests, and deployment pipelines.</t>
-  </si>
-  <si>
-    <t>NFR1</t>
-  </si>
-  <si>
-    <t>NFR2</t>
-  </si>
-  <si>
-    <t>NFR3</t>
-  </si>
-  <si>
-    <t>NFR4</t>
-  </si>
-  <si>
-    <t>Non-Functional (NFR)</t>
-  </si>
-  <si>
-    <t>Traceability Matrix
+    <t xml:space="preserve">Template: Traceability Matrix
 Project: 
-Date: Current</t>
-  </si>
-  <si>
-    <t>Less than 2 seconds of average response time for all public-facing APIs.</t>
-  </si>
-  <si>
-    <t>The system must achieve 99.99% uptime across core services.</t>
-  </si>
-  <si>
-    <t>Encryption at rest and in transit must comply with bank-grade security policies.</t>
+Date: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,6 +425,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,6 +446,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -510,27 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,9 +505,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -595,9 +545,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -840,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AC4A2-C96B-45DB-9484-C783BBCA31E4}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,21 +814,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -922,16 +872,10 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -943,16 +887,10 @@
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -964,16 +902,10 @@
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>79</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -985,16 +917,10 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1006,16 +932,10 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1027,16 +947,10 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1048,16 +962,10 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1069,13 +977,9 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1142,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A4EC43-AC28-4927-878D-1988B099DCEC}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1157,31 +1061,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="10"/>
@@ -1190,13 +1094,13 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="10"/>
@@ -1205,13 +1109,13 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="10"/>
@@ -1220,13 +1124,13 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="10"/>
@@ -1235,13 +1139,13 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="10"/>
@@ -1250,13 +1154,13 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="10"/>
@@ -1265,13 +1169,13 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="10"/>
@@ -1280,13 +1184,13 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="10"/>
@@ -1295,13 +1199,13 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="10"/>
@@ -1310,13 +1214,13 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="10"/>
@@ -1325,13 +1229,13 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="10"/>
@@ -1340,13 +1244,13 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="10"/>
@@ -1355,13 +1259,13 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="10"/>
@@ -1370,13 +1274,13 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="10"/>
@@ -1393,11 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1417,197 +1321,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1619,16 +1517,10 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1640,16 +1532,10 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1661,16 +1547,10 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1682,13 +1562,9 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1701,13 +1577,9 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1720,13 +1592,9 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>85</v>
-      </c>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1739,13 +1607,9 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>85</v>
-      </c>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
